--- a/metadata/ADSL_ADVS_spec.xlsx
+++ b/metadata/ADSL_ADVS_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanny.Gautier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8881A-9A26-485C-A707-5CA8D95DFABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE27296-8EE2-47AD-A72D-5B853BDABFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38235" windowHeight="19950" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38280" windowHeight="19935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -1615,18 +1615,7 @@
     <t>Algorithm for ADVS.CHG</t>
   </si>
   <si>
-    <t>Set to Analysis Value [ADVS.AVAL] minus Baseline Value [ADVS.BASE]
-Populate only post-baseline records, ie. ADVS.AVISIT is not equal to the values 'BASELINE' or 'PRE-BASELINE' and is not missing (using ADVS.ADVISITN: not missing and greater than 0)</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.PCHG</t>
-  </si>
-  <si>
-    <t>Populated for Post-Baseline records only: 
-Set to (Change from Baseline [ADVS.CHG] divided by Baseline Value [ADVS.BASE]) multiplied by 100 
-Do not compute if Baseline Value [ADVS.BASE] is 0.
-Populate only post-baseline records, ie. ADVS.AVISIT is not equal to the values  'BASELINE' or 'PRE-BASELINE' and is not missing (using ADVS.ADVISITN: not missing and greater than 0)
-Note: If Change from Baseline [CHG] is negative, then Percentage Change from Baseline [PCHG] will be negative as well.</t>
   </si>
   <si>
     <t>Algorithm for ADVS.DTYPE</t>
@@ -1639,31 +1628,12 @@
     <t>Algorithm for ADVS.ANRHI</t>
   </si>
   <si>
-    <t>For ADVS.PARAMCD = 'SYSBP' set to 130, 
-else for ADVS.PARAMCD = 'DIABP' set to  80, 
-else for ADVS.PARAMCD = 'PULSE' set to 100, 
-else for ADVS.PARAMCD = 'TEMP' set to 37.5</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.ANRLO</t>
   </si>
   <si>
-    <t>For ADVS.PARAMCD = 'SYSBP' set to 90, 
-else for ADVS.PARAMCD = 'DIABP' set to 60,
-else for ADVS.PARAMCD = 'PULSE' set to 60, 
-else for ADVS.PARAMCD = 'TEMP' set to 36.5</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.ANRIND</t>
   </si>
   <si>
-    <t>Set to 'NORMAL' if  analysis value [ADVS.AVAL] is greater than or equal to the lower limit [ADVS.ANRLO] and less than or equal to the upper limit [ADVS.ANRHI]; or if analysis value [ADVS.AVAL] is greater than or equal to the lower limit [ADVS.ANRLO] and the upper limit [ADVS.ANRHI] is missing; or if analysis value [ADVS.AVAL] is less than or equal the upper limit [ADVS.ANRHI] and the lower limit [ADVS.ANRLO] is missing.
-Else set to 'LOW' if  analysis value [ADVS.AVAL] is less than the lower limit [ADVS.ANRLO] and (if it exists) is greater than or equal to the marked abnormality lower limit [ADVS.A1LO]
-Else set to 'HIGH' if analysis value [ADVS.AVAL]  is greater than the upper limit [ADVS.ANRHI] and (if it exists) is less than or equal to the marked abnormality upper limit [ADVS.A1HI]
-Else set to 'LOW LOW' if  analysis value [ADVS.AVAL] is less than the marked abnormality lower limit [ADVS.A1LO] if it exists
-Else set to 'HIGH HIGH' if  analysis value [ADVS.AVAL] is greater than the marked abnormality upper limit [ADVS.A1HI] if it exists</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.BNRIND</t>
   </si>
   <si>
@@ -1673,19 +1643,7 @@
     <t>Algorithm for ADVS.A1HI</t>
   </si>
   <si>
-    <t>For ADVS.PARAMCD = 'SYSBP' set to 140,
-else for ADVS.PARAMCD = 'DIABP' set to 90,
-else for ADVS.PARAMCD = 'PULSE' set to 110,
-else for ADVS.PARAMCD = 'TEMP' set to 38</t>
-  </si>
-  <si>
     <t>Algorithm for ADVS.A1LO</t>
-  </si>
-  <si>
-    <t>For ADVS.PARAMCD = 'SYSBP' set to 70,
-else for ADVS.PARAMCD = 'DIABP' set to  40,
-else for ADVS.PARAMCD = 'PULSE' set to 40,
-else for ADVS.PARAMCD = 'TEMP' set to  35</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ADT</t>
@@ -1743,10 +1701,6 @@
   </si>
   <si>
     <t>Algorithm for ADVS.ANL01FL</t>
-  </si>
-  <si>
-    <t>Populated only for post-baseline records (ADVS.AVISIT not missing and ONTRTFL = 'Y'):
-Set to 'Y' to the latest and highest value (ordering by Analysis Date ADVS.ADT and Analysis Value ADVS.AVAL) by USUBJID, PARAMCD, AVISIT,  ATPT, DTYPE.</t>
   </si>
   <si>
     <t>Algorithm for ADVS.ASEQ</t>
@@ -1893,6 +1847,50 @@
   </si>
   <si>
     <t>End to end example for ADSL and ADVS data</t>
+  </si>
+  <si>
+    <t>For [ADVS.PARAMCD] = 'SYSBP' set to 130, 
+else for [ADVS.PARAMCD] = 'DIABP' set to  80, 
+else for [ADVS.PARAMCD] = 'PULSE' set to 100, 
+else for [ADVS.PARAMCD] = 'TEMP' set to 37.5</t>
+  </si>
+  <si>
+    <t>For [ADVS.PARAMCD] = 'SYSBP' set to 90, 
+else for [ADVS.PARAMCD] = 'DIABP' set to 60,
+else for [ADVS.PARAMCD] = 'PULSE' set to 60, 
+else for [ADVS.PARAMCD] = 'TEMP' set to 36.5</t>
+  </si>
+  <si>
+    <t>Set to 'NORMAL' if  analysis value [ADVS.AVAL] is greater than or equal to the lower limit [ADVS.ANRLO] and less than or equal to the upper limit [ADVS.ANRHI]; or if analysis value [ADVS.AVAL] is greater than or equal to the lower limit [ADVS.ANRLO] and the upper limit [ADVS.ANRHI] is missing; or if analysis value [ADVS.AVAL] is less than or equal the upper limit [ADVS.ANRHI] and the lower limit [ADVS.ANRLO] is missing.
+Else set to 'LOW' if  analysis value [ADVS.AVAL] is less than the lower limit [ADVS.ANRLO] and (if it exists) is greater than or equal to the marked abnormality lower limit [ADVS.A1LO]
+Else set to 'HIGH' if analysis value [ADVS.AVAL]  is greater than the upper limit [ADVS.ANRHI] and (if it exists) is less than or equal to the marked abnormality upper limit [ADVS.A1HI]</t>
+  </si>
+  <si>
+    <t>For [ADVS.PARAMCD] = 'SYSBP' set to 140,
+else for [ADVS.PARAMCD] = 'DIABP' set to 90,
+else for [ADVS.PARAMCD] = 'PULSE' set to 110,
+else for [ADVS.PARAMCD] = 'TEMP' set to 38</t>
+  </si>
+  <si>
+    <t>For [ADVS.PARAMCD] = 'SYSBP' set to 70,
+else for [ADVS.PARAMCD] = 'DIABP' set to  40,
+else for [ADVS.PARAMCD] = 'PULSE' set to 40,
+else for [ADVS.PARAMCD] = 'TEMP' set to  35</t>
+  </si>
+  <si>
+    <t>Populated for Post-Baseline records only: 
+Set to (Change from Baseline [ADVS.CHG] divided by Baseline Value [ADVS.BASE]) multiplied by 100 
+Do not compute if Baseline Value [ADVS.BASE] is 0.
+Populate only post-baseline records, ie. ADVS.AVISIT is not equal to the values  'BASELINE' or 'PRE-BASELINE' and is not missing (using [ADVS.ADVISITN]: not missing and greater than 0)
+Note: If Change from Baseline [CHG] is negative, then Percentage Change from Baseline [PCHG] will be negative as well.</t>
+  </si>
+  <si>
+    <t>Set to Analysis Value [ADVS.AVAL] minus Baseline Value [ADVS.BASE]
+Populate only post-baseline records, ie. ADVS.AVISIT is not equal to the values 'BASELINE' or 'PRE-BASELINE' and is not missing (using [ADVS.ADVISITN]: not missing and greater than 0)</t>
+  </si>
+  <si>
+    <t>Populated only for post-baseline records ([ADVS.AVISIT] not missing and [ADVS.ONTRTFL] = 'Y'):
+Set to 'Y' to the latest and highest value (ordering by Analysis Date [ADVS.ADT] and Analysis Value [ADVS.AVAL]) by USUBJID, PARAMCD, AVISIT,  ATPT, DTYPE.</t>
   </si>
 </sst>
 </file>
@@ -2392,7 +2390,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2400,7 +2398,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -2653,10 +2651,10 @@
   <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,7 +3164,7 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>578</v>
       </c>
       <c r="K13" t="s">
         <v>122</v>
@@ -3207,7 +3205,7 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>574</v>
       </c>
       <c r="K14" t="s">
         <v>122</v>
@@ -3248,7 +3246,7 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>574</v>
       </c>
       <c r="K15" t="s">
         <v>269</v>
@@ -3285,7 +3283,7 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>574</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
@@ -3324,7 +3322,7 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>574</v>
       </c>
       <c r="K17" t="s">
         <v>269</v>
@@ -4977,7 +4975,7 @@
         <v>49</v>
       </c>
       <c r="J60" t="s">
-        <v>60</v>
+        <v>578</v>
       </c>
       <c r="K60" t="s">
         <v>122</v>
@@ -5016,7 +5014,7 @@
         <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>574</v>
       </c>
       <c r="K61" t="s">
         <v>122</v>
@@ -7347,10 +7345,10 @@
   <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7487,7 +7485,7 @@
         <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -7511,7 +7509,7 @@
         <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -7535,7 +7533,7 @@
         <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -7556,7 +7554,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -7580,7 +7578,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -7604,7 +7602,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -7628,7 +7626,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -7652,7 +7650,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -7674,7 +7672,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B14" t="s">
         <v>209</v>
@@ -7696,7 +7694,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B15" t="s">
         <v>209</v>
@@ -7718,7 +7716,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s">
         <v>209</v>
@@ -7740,7 +7738,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B17" t="s">
         <v>209</v>
@@ -7762,7 +7760,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B18" t="s">
         <v>209</v>
@@ -7784,7 +7782,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B19" t="s">
         <v>232</v>
@@ -7806,7 +7804,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
         <v>232</v>
@@ -7828,7 +7826,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B21" t="s">
         <v>232</v>
@@ -7850,7 +7848,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B22" t="s">
         <v>234</v>
@@ -7874,7 +7872,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B23" t="s">
         <v>234</v>
@@ -7898,7 +7896,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B24" t="s">
         <v>234</v>
@@ -8052,7 +8050,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -8078,7 +8076,7 @@
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -8104,7 +8102,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -8130,7 +8128,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -8159,7 +8157,7 @@
         <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
@@ -8179,7 +8177,7 @@
         <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
@@ -8199,7 +8197,7 @@
         <v>266</v>
       </c>
       <c r="B37" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
@@ -8219,7 +8217,7 @@
         <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
@@ -8239,7 +8237,7 @@
         <v>267</v>
       </c>
       <c r="B39" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
@@ -8261,7 +8259,7 @@
         <v>267</v>
       </c>
       <c r="B40" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
@@ -8283,7 +8281,7 @@
         <v>267</v>
       </c>
       <c r="B41" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
@@ -8305,7 +8303,7 @@
         <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
@@ -9392,9 +9390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9461,7 +9459,7 @@
         <v>491</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9587,7 +9585,7 @@
         <v>491</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9671,7 +9669,7 @@
         <v>491</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -9679,13 +9677,13 @@
         <v>418</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9693,13 +9691,13 @@
         <v>419</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9707,13 +9705,13 @@
         <v>420</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9721,27 +9719,27 @@
         <v>421</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>422</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -9749,13 +9747,13 @@
         <v>423</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9763,13 +9761,13 @@
         <v>424</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9777,13 +9775,13 @@
         <v>425</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9791,13 +9789,13 @@
         <v>426</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -9805,13 +9803,13 @@
         <v>427</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9819,13 +9817,13 @@
         <v>428</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9833,13 +9831,13 @@
         <v>429</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9847,13 +9845,13 @@
         <v>430</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9861,13 +9859,13 @@
         <v>431</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9875,13 +9873,13 @@
         <v>432</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9889,13 +9887,13 @@
         <v>433</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -9903,27 +9901,27 @@
         <v>434</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>435</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9931,13 +9929,13 @@
         <v>380</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -9945,13 +9943,13 @@
         <v>302</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>491</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -9965,7 +9963,7 @@
         <v>491</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -9979,7 +9977,7 @@
         <v>491</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9993,7 +9991,7 @@
         <v>491</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10007,7 +10005,7 @@
         <v>491</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10021,7 +10019,7 @@
         <v>491</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10035,7 +10033,7 @@
         <v>491</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10049,7 +10047,7 @@
         <v>491</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10063,7 +10061,7 @@
         <v>491</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -10074,10 +10072,10 @@
         <v>137</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -10088,10 +10086,10 @@
         <v>138</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10105,7 +10103,7 @@
         <v>491</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10119,7 +10117,7 @@
         <v>491</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10133,7 +10131,7 @@
         <v>491</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10147,7 +10145,7 @@
         <v>491</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -10161,7 +10159,7 @@
         <v>491</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10175,7 +10173,7 @@
         <v>491</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -10189,7 +10187,7 @@
         <v>491</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10203,7 +10201,7 @@
         <v>491</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10217,7 +10215,7 @@
         <v>491</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -10231,7 +10229,7 @@
         <v>491</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10245,7 +10243,7 @@
         <v>491</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -10259,7 +10257,7 @@
         <v>491</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/ADSL_ADVS_spec.xlsx
+++ b/metadata/ADSL_ADVS_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanny.Gautier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE27296-8EE2-47AD-A72D-5B853BDABFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38911FAB-1D64-4B12-B5A8-126EF170450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38280" windowHeight="19935" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28935" windowHeight="14670" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="592">
   <si>
     <t>Attribute</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>cdiscpilot_docs/acrf.pdf</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>AGEGR1</t>
@@ -915,9 +912,6 @@
     <t>DM.ETHNIC</t>
   </si>
   <si>
-    <t>ADSL.FASFL</t>
-  </si>
-  <si>
     <t>ADSL Treatment Variables</t>
   </si>
   <si>
@@ -1891,6 +1885,15 @@
   <si>
     <t>Populated only for post-baseline records ([ADVS.AVISIT] not missing and [ADVS.ONTRTFL] = 'Y'):
 Set to 'Y' to the latest and highest value (ordering by Analysis Date [ADVS.ADT] and Analysis Value [ADVS.AVAL]) by USUBJID, PARAMCD, AVISIT,  ATPT, DTYPE.</t>
+  </si>
+  <si>
+    <t>ADSL.SAFFL</t>
+  </si>
+  <si>
+    <t>SUPPDM.ITT</t>
+  </si>
+  <si>
+    <t>SUPPDM.SAFETY</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2393,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2398,7 +2401,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2406,7 +2409,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2417,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2422,7 +2425,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2548,52 +2551,52 @@
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2651,10 +2654,10 @@
   <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J61" sqref="J61"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -2752,12 +2755,12 @@
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -2769,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
@@ -2789,15 +2792,15 @@
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" t="s">
         <v>271</v>
-      </c>
-      <c r="O3" t="s">
-        <v>272</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -2808,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -2828,15 +2831,15 @@
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -2847,7 +2850,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -2867,12 +2870,12 @@
       </c>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O5"/>
       <c r="P5"/>
@@ -2884,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
@@ -2904,12 +2907,12 @@
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -2921,13 +2924,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
@@ -2940,7 +2943,7 @@
         <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K7" t="s">
         <v>85</v>
@@ -2958,16 +2961,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" t="s">
         <v>226</v>
-      </c>
-      <c r="E8" t="s">
-        <v>227</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -2977,10 +2980,10 @@
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -2995,7 +2998,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -3004,7 +3007,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -3015,12 +3018,12 @@
       </c>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O9"/>
       <c r="P9"/>
@@ -3032,7 +3035,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -3051,15 +3054,15 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -3071,13 +3074,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
         <v>84</v>
@@ -3095,7 +3098,7 @@
       </c>
       <c r="L11"/>
       <c r="M11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
@@ -3108,16 +3111,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" t="s">
         <v>230</v>
       </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -3127,10 +3130,10 @@
         <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -3145,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -3164,18 +3167,18 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" t="s">
         <v>279</v>
-      </c>
-      <c r="O13" t="s">
-        <v>280</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
@@ -3186,7 +3189,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -3205,18 +3208,18 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -3227,16 +3230,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
         <v>208</v>
       </c>
-      <c r="D15" t="s">
-        <v>209</v>
-      </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -3246,10 +3249,10 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -3264,13 +3267,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" t="s">
         <v>84</v>
@@ -3283,14 +3286,14 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
       </c>
       <c r="L16"/>
       <c r="M16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -3303,16 +3306,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" t="s">
         <v>233</v>
       </c>
-      <c r="D17" t="s">
-        <v>234</v>
-      </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -3322,10 +3325,10 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -3340,13 +3343,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
         <v>84</v>
@@ -3359,15 +3362,15 @@
         <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O18"/>
       <c r="P18"/>
@@ -3379,13 +3382,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
         <v>236</v>
-      </c>
-      <c r="D19" t="s">
-        <v>237</v>
       </c>
       <c r="E19" t="s">
         <v>84</v>
@@ -3398,18 +3401,18 @@
         <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="N19"/>
       <c r="O19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -3420,10 +3423,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
         <v>118</v>
@@ -3439,15 +3442,14 @@
         <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20" t="s">
-        <v>284</v>
+      <c r="M20" t="s">
+        <v>589</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -3459,13 +3461,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" t="s">
         <v>238</v>
-      </c>
-      <c r="D21" t="s">
-        <v>239</v>
       </c>
       <c r="E21" t="s">
         <v>84</v>
@@ -3478,18 +3480,18 @@
         <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K21" t="s">
         <v>85</v>
       </c>
       <c r="L21"/>
       <c r="M21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N21"/>
       <c r="O21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
@@ -3500,23 +3502,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
       <c r="G22"/>
       <c r="H22" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
         <v>50</v>
@@ -3527,11 +3529,11 @@
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N22"/>
       <c r="O22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
@@ -3542,7 +3544,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -3562,15 +3564,15 @@
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P23"/>
       <c r="Q23"/>
@@ -3581,7 +3583,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -3601,15 +3603,15 @@
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
@@ -3620,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
         <v>66</v>
@@ -3640,15 +3642,15 @@
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P25"/>
       <c r="Q25"/>
@@ -3659,7 +3661,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
@@ -3679,15 +3681,15 @@
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
@@ -3698,13 +3700,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
         <v>128</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
       </c>
       <c r="E27" t="s">
         <v>84</v>
@@ -3717,18 +3719,18 @@
         <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
         <v>85</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N27"/>
       <c r="O27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P27"/>
       <c r="Q27"/>
@@ -3739,16 +3741,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" t="s">
         <v>241</v>
       </c>
-      <c r="D28" t="s">
-        <v>242</v>
-      </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F28">
         <v>8</v>
@@ -3758,16 +3760,16 @@
         <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
@@ -3778,13 +3780,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
         <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>131</v>
       </c>
       <c r="E29" t="s">
         <v>84</v>
@@ -3797,14 +3799,14 @@
         <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -3817,16 +3819,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" t="s">
         <v>243</v>
       </c>
-      <c r="D30" t="s">
-        <v>244</v>
-      </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -3836,10 +3838,10 @@
         <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -3854,23 +3856,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" t="s">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
-        <v>140</v>
-      </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F31">
         <v>8</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I31" t="s">
         <v>50</v>
@@ -3881,7 +3883,7 @@
       </c>
       <c r="L31"/>
       <c r="M31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -3894,23 +3896,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" t="s">
         <v>245</v>
       </c>
-      <c r="D32" t="s">
-        <v>246</v>
-      </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F32">
         <v>8</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I32" t="s">
         <v>50</v>
@@ -3921,7 +3923,7 @@
       </c>
       <c r="L32"/>
       <c r="M32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -3934,23 +3936,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
         <v>132</v>
       </c>
-      <c r="D33" t="s">
-        <v>133</v>
-      </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33" t="s">
         <v>50</v>
@@ -3961,7 +3963,7 @@
       </c>
       <c r="L33"/>
       <c r="M33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -3974,13 +3976,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
         <v>84</v>
@@ -3998,7 +4000,7 @@
       </c>
       <c r="L34"/>
       <c r="M34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -4011,23 +4013,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
         <v>141</v>
       </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35"/>
       <c r="H35" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
         <v>50</v>
@@ -4038,7 +4040,7 @@
       </c>
       <c r="L35"/>
       <c r="M35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -4051,23 +4053,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
         <v>135</v>
       </c>
-      <c r="D36" t="s">
-        <v>136</v>
-      </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
       <c r="G36"/>
       <c r="H36" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36" t="s">
         <v>50</v>
@@ -4078,7 +4080,7 @@
       </c>
       <c r="L36"/>
       <c r="M36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -4091,13 +4093,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E37" t="s">
         <v>84</v>
@@ -4115,7 +4117,7 @@
       </c>
       <c r="L37"/>
       <c r="M37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -4128,16 +4130,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -4152,7 +4154,7 @@
       </c>
       <c r="L38"/>
       <c r="M38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -4165,23 +4167,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" t="s">
         <v>251</v>
       </c>
-      <c r="D39" t="s">
-        <v>252</v>
-      </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F39">
         <v>8</v>
       </c>
       <c r="G39"/>
       <c r="H39" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I39" t="s">
         <v>50</v>
@@ -4192,7 +4194,7 @@
       </c>
       <c r="L39"/>
       <c r="M39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -4205,7 +4207,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
         <v>56</v>
@@ -4224,15 +4226,15 @@
         <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O40"/>
       <c r="P40"/>
@@ -4244,16 +4246,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
         <v>143</v>
       </c>
-      <c r="D41" t="s">
-        <v>144</v>
-      </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -4268,7 +4270,7 @@
       </c>
       <c r="L41"/>
       <c r="M41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -4281,16 +4283,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
-        <v>149</v>
-      </c>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -4305,7 +4307,7 @@
       </c>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -4318,13 +4320,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" t="s">
         <v>253</v>
-      </c>
-      <c r="D43" t="s">
-        <v>254</v>
       </c>
       <c r="E43" t="s">
         <v>84</v>
@@ -4342,7 +4344,7 @@
       </c>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -4355,13 +4357,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" t="s">
         <v>255</v>
-      </c>
-      <c r="D44" t="s">
-        <v>256</v>
       </c>
       <c r="E44" t="s">
         <v>84</v>
@@ -4379,7 +4381,7 @@
       </c>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -4392,13 +4394,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" t="s">
         <v>257</v>
-      </c>
-      <c r="D45" t="s">
-        <v>258</v>
       </c>
       <c r="E45" t="s">
         <v>84</v>
@@ -4416,7 +4418,7 @@
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -4429,23 +4431,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
         <v>151</v>
       </c>
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F46">
         <v>8</v>
       </c>
       <c r="G46"/>
       <c r="H46" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I46" t="s">
         <v>50</v>
@@ -4456,7 +4458,7 @@
       </c>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -4469,23 +4471,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
         <v>153</v>
       </c>
-      <c r="D47" t="s">
-        <v>154</v>
-      </c>
       <c r="E47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47"/>
       <c r="H47" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I47" t="s">
         <v>50</v>
@@ -4496,7 +4498,7 @@
       </c>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -4509,13 +4511,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
         <v>155</v>
-      </c>
-      <c r="D48" t="s">
-        <v>156</v>
       </c>
       <c r="E48" t="s">
         <v>84</v>
@@ -4533,7 +4535,7 @@
       </c>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -4546,23 +4548,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F49">
         <v>8</v>
       </c>
       <c r="G49"/>
       <c r="H49" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I49" t="s">
         <v>50</v>
@@ -4573,7 +4575,7 @@
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -4586,7 +4588,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -4606,12 +4608,12 @@
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O50"/>
       <c r="P50"/>
@@ -4623,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -4643,12 +4645,12 @@
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="O51"/>
       <c r="P51"/>
@@ -4660,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -4680,12 +4682,12 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="O52"/>
       <c r="P52"/>
@@ -4697,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -4717,12 +4719,12 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O53"/>
       <c r="P53"/>
@@ -4734,16 +4736,16 @@
         <v>5</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
         <v>198</v>
       </c>
-      <c r="D54" t="s">
-        <v>199</v>
-      </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -4758,7 +4760,7 @@
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
@@ -4771,13 +4773,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
         <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>146</v>
       </c>
       <c r="E55" t="s">
         <v>84</v>
@@ -4791,12 +4793,12 @@
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O55"/>
       <c r="P55"/>
@@ -4808,7 +4810,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
         <v>67</v>
@@ -4828,12 +4830,12 @@
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O56"/>
       <c r="P56"/>
@@ -4845,13 +4847,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
         <v>84</v>
@@ -4865,12 +4867,12 @@
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O57"/>
       <c r="P57"/>
@@ -4882,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -4891,7 +4893,7 @@
         <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F58">
         <v>8</v>
@@ -4902,12 +4904,12 @@
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
@@ -4919,7 +4921,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
@@ -4939,12 +4941,12 @@
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O59"/>
       <c r="P59"/>
@@ -4956,7 +4958,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
@@ -4975,15 +4977,15 @@
         <v>49</v>
       </c>
       <c r="J60" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
@@ -4995,7 +4997,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -5014,15 +5016,15 @@
         <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K61" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O61"/>
       <c r="P61"/>
@@ -5034,13 +5036,13 @@
         <v>13</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" t="s">
         <v>236</v>
-      </c>
-      <c r="D62" t="s">
-        <v>237</v>
       </c>
       <c r="E62" t="s">
         <v>84</v>
@@ -5053,15 +5055,15 @@
         <v>50</v>
       </c>
       <c r="J62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O62"/>
       <c r="P62"/>
@@ -5073,13 +5075,13 @@
         <v>14</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" t="s">
         <v>128</v>
-      </c>
-      <c r="D63" t="s">
-        <v>129</v>
       </c>
       <c r="E63" t="s">
         <v>84</v>
@@ -5092,15 +5094,15 @@
         <v>49</v>
       </c>
       <c r="J63" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K63" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O63"/>
       <c r="P63"/>
@@ -5112,13 +5114,13 @@
         <v>15</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" t="s">
-        <v>131</v>
       </c>
       <c r="E64" t="s">
         <v>84</v>
@@ -5131,15 +5133,15 @@
         <v>50</v>
       </c>
       <c r="J64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K64" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -5151,35 +5153,35 @@
         <v>16</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
         <v>139</v>
       </c>
-      <c r="D65" t="s">
-        <v>140</v>
-      </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F65">
         <v>8</v>
       </c>
       <c r="G65"/>
       <c r="H65" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I65" t="s">
         <v>50</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O65"/>
       <c r="P65"/>
@@ -5191,35 +5193,35 @@
         <v>17</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
         <v>132</v>
       </c>
-      <c r="D66" t="s">
-        <v>133</v>
-      </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F66">
         <v>8</v>
       </c>
       <c r="G66"/>
       <c r="H66" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I66" t="s">
         <v>50</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -5231,35 +5233,35 @@
         <v>18</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
         <v>141</v>
       </c>
-      <c r="D67" t="s">
-        <v>142</v>
-      </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F67">
         <v>8</v>
       </c>
       <c r="G67"/>
       <c r="H67" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I67" t="s">
         <v>50</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O67"/>
       <c r="P67"/>
@@ -5271,13 +5273,13 @@
         <v>19</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D68" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E68" t="s">
         <v>84</v>
@@ -5291,12 +5293,12 @@
       </c>
       <c r="J68"/>
       <c r="K68" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
@@ -5308,13 +5310,13 @@
         <v>20</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D69" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E69" t="s">
         <v>84</v>
@@ -5328,12 +5330,12 @@
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O69"/>
       <c r="P69"/>
@@ -5345,13 +5347,13 @@
         <v>21</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D70" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E70" t="s">
         <v>84</v>
@@ -5365,12 +5367,12 @@
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O70"/>
       <c r="P70"/>
@@ -5382,13 +5384,13 @@
         <v>22</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E71" t="s">
         <v>84</v>
@@ -5402,12 +5404,12 @@
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O71"/>
       <c r="P71"/>
@@ -5419,13 +5421,13 @@
         <v>23</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" t="s">
         <v>84</v>
@@ -5439,12 +5441,12 @@
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="O72"/>
       <c r="P72"/>
@@ -5456,13 +5458,13 @@
         <v>24</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" t="s">
         <v>84</v>
@@ -5476,12 +5478,12 @@
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="O73"/>
       <c r="P73"/>
@@ -5493,13 +5495,13 @@
         <v>25</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
         <v>84</v>
@@ -5513,12 +5515,12 @@
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O74"/>
       <c r="P74"/>
@@ -5530,16 +5532,16 @@
         <v>26</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F75">
         <v>8</v>
@@ -5550,12 +5552,12 @@
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O75"/>
       <c r="P75"/>
@@ -5567,13 +5569,13 @@
         <v>27</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
         <v>84</v>
@@ -5587,12 +5589,12 @@
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="O76"/>
       <c r="P76"/>
@@ -5604,13 +5606,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E77" t="s">
         <v>84</v>
@@ -5624,12 +5626,12 @@
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O77"/>
       <c r="P77"/>
@@ -5641,13 +5643,13 @@
         <v>29</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E78" t="s">
         <v>84</v>
@@ -5661,12 +5663,12 @@
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O78"/>
       <c r="P78"/>
@@ -5678,13 +5680,13 @@
         <v>30</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E79" t="s">
         <v>84</v>
@@ -5698,12 +5700,12 @@
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O79"/>
       <c r="P79"/>
@@ -5715,7 +5717,7 @@
         <v>31</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" t="s">
         <v>53</v>
@@ -5724,7 +5726,7 @@
         <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -5735,12 +5737,12 @@
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="O80"/>
       <c r="P80"/>
@@ -5752,7 +5754,7 @@
         <v>32</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
         <v>54</v>
@@ -5772,12 +5774,12 @@
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O81"/>
       <c r="P81"/>
@@ -5789,16 +5791,16 @@
         <v>33</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" t="s">
         <v>334</v>
-      </c>
-      <c r="D82" t="s">
-        <v>335</v>
-      </c>
-      <c r="E82" t="s">
-        <v>336</v>
       </c>
       <c r="F82">
         <v>25</v>
@@ -5809,12 +5811,12 @@
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="O82"/>
       <c r="P82"/>
@@ -5826,16 +5828,16 @@
         <v>34</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D83" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F83">
         <v>8</v>
@@ -5846,12 +5848,12 @@
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="O83"/>
       <c r="P83"/>
@@ -5863,13 +5865,13 @@
         <v>35</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E84" t="s">
         <v>84</v>
@@ -5883,12 +5885,12 @@
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O84"/>
       <c r="P84"/>
@@ -5900,16 +5902,16 @@
         <v>36</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F85">
         <v>8</v>
@@ -5920,12 +5922,12 @@
       </c>
       <c r="J85"/>
       <c r="K85" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O85"/>
       <c r="P85"/>
@@ -5937,13 +5939,13 @@
         <v>37</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
@@ -5957,12 +5959,12 @@
       </c>
       <c r="J86"/>
       <c r="K86" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
@@ -5974,16 +5976,16 @@
         <v>38</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D87" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F87">
         <v>8</v>
@@ -5994,12 +5996,12 @@
       </c>
       <c r="J87"/>
       <c r="K87" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O87"/>
       <c r="P87"/>
@@ -6011,16 +6013,16 @@
         <v>39</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D88" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F88">
         <v>8</v>
@@ -6031,12 +6033,12 @@
       </c>
       <c r="J88"/>
       <c r="K88" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O88"/>
       <c r="P88"/>
@@ -6048,13 +6050,13 @@
         <v>40</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E89" t="s">
         <v>84</v>
@@ -6068,12 +6070,12 @@
       </c>
       <c r="J89"/>
       <c r="K89" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O89"/>
       <c r="P89"/>
@@ -6085,13 +6087,13 @@
         <v>41</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" t="s">
         <v>157</v>
-      </c>
-      <c r="D90" t="s">
-        <v>158</v>
       </c>
       <c r="E90" t="s">
         <v>84</v>
@@ -6104,10 +6106,10 @@
         <v>49</v>
       </c>
       <c r="J90" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -6122,16 +6124,16 @@
         <v>42</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D91" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F91">
         <v>8</v>
@@ -6141,10 +6143,10 @@
         <v>50</v>
       </c>
       <c r="J91" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -6159,13 +6161,13 @@
         <v>43</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" t="s">
         <v>160</v>
-      </c>
-      <c r="D92" t="s">
-        <v>161</v>
       </c>
       <c r="E92" t="s">
         <v>84</v>
@@ -6178,10 +6180,10 @@
         <v>49</v>
       </c>
       <c r="J92" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -6196,16 +6198,16 @@
         <v>44</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" t="s">
         <v>176</v>
       </c>
-      <c r="D93" t="s">
-        <v>177</v>
-      </c>
       <c r="E93" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F93">
         <v>8</v>
@@ -6218,7 +6220,7 @@
       </c>
       <c r="L93"/>
       <c r="M93" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
@@ -6231,13 +6233,13 @@
         <v>45</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" t="s">
         <v>178</v>
-      </c>
-      <c r="D94" t="s">
-        <v>179</v>
       </c>
       <c r="E94" t="s">
         <v>84</v>
@@ -6249,11 +6251,11 @@
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L94"/>
       <c r="M94" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -6266,13 +6268,13 @@
         <v>46</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" t="s">
         <v>174</v>
-      </c>
-      <c r="D95" t="s">
-        <v>175</v>
       </c>
       <c r="E95" t="s">
         <v>84</v>
@@ -6288,7 +6290,7 @@
       </c>
       <c r="L95"/>
       <c r="M95" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N95"/>
       <c r="O95"/>
@@ -6301,16 +6303,16 @@
         <v>47</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -6319,7 +6321,7 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -6334,16 +6336,16 @@
         <v>48</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" t="s">
         <v>182</v>
       </c>
-      <c r="D97" t="s">
-        <v>183</v>
-      </c>
       <c r="E97" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F97">
         <v>8</v>
@@ -6356,7 +6358,7 @@
       </c>
       <c r="L97"/>
       <c r="M97" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -6369,13 +6371,13 @@
         <v>49</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" t="s">
         <v>188</v>
-      </c>
-      <c r="D98" t="s">
-        <v>189</v>
       </c>
       <c r="E98" t="s">
         <v>84</v>
@@ -6387,11 +6389,11 @@
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L98"/>
       <c r="M98" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
@@ -6404,13 +6406,13 @@
         <v>50</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" t="s">
         <v>180</v>
-      </c>
-      <c r="D99" t="s">
-        <v>181</v>
       </c>
       <c r="E99" t="s">
         <v>84</v>
@@ -6421,14 +6423,14 @@
       <c r="G99"/>
       <c r="I99"/>
       <c r="J99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K99" t="s">
         <v>85</v>
       </c>
       <c r="L99"/>
       <c r="M99" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
@@ -6441,16 +6443,16 @@
         <v>51</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" t="s">
         <v>184</v>
       </c>
-      <c r="D100" t="s">
-        <v>185</v>
-      </c>
       <c r="E100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F100">
         <v>8</v>
@@ -6463,7 +6465,7 @@
       </c>
       <c r="L100"/>
       <c r="M100" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
@@ -6476,16 +6478,16 @@
         <v>52</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E101" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F101">
         <v>8</v>
@@ -6498,7 +6500,7 @@
       </c>
       <c r="L101"/>
       <c r="M101" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
@@ -6511,13 +6513,13 @@
         <v>53</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
         <v>186</v>
-      </c>
-      <c r="D102" t="s">
-        <v>187</v>
       </c>
       <c r="E102" t="s">
         <v>84</v>
@@ -6533,7 +6535,7 @@
       </c>
       <c r="L102"/>
       <c r="M102" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -6546,16 +6548,16 @@
         <v>54</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F103">
         <v>8</v>
@@ -6564,11 +6566,11 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L103"/>
       <c r="M103" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N103"/>
       <c r="O103"/>
@@ -6581,16 +6583,16 @@
         <v>55</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D104" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E104" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F104">
         <v>8</v>
@@ -6599,11 +6601,11 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L104"/>
       <c r="M104" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
@@ -6616,13 +6618,13 @@
         <v>56</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D105" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E105" t="s">
         <v>84</v>
@@ -6638,7 +6640,7 @@
       </c>
       <c r="L105"/>
       <c r="M105" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="N105"/>
       <c r="O105"/>
@@ -6651,13 +6653,13 @@
         <v>57</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D106" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E106" t="s">
         <v>84</v>
@@ -6673,7 +6675,7 @@
       </c>
       <c r="L106"/>
       <c r="M106" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
@@ -6686,16 +6688,16 @@
         <v>58</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D107" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E107" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F107">
         <v>8</v>
@@ -6704,11 +6706,11 @@
       <c r="I107"/>
       <c r="J107"/>
       <c r="K107" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L107"/>
       <c r="M107" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -6721,16 +6723,16 @@
         <v>59</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D108" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F108">
         <v>8</v>
@@ -6739,11 +6741,11 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L108"/>
       <c r="M108" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -6756,16 +6758,16 @@
         <v>60</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" t="s">
         <v>170</v>
       </c>
-      <c r="D109" t="s">
-        <v>171</v>
-      </c>
       <c r="E109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F109">
         <v>8</v>
@@ -6778,7 +6780,7 @@
       </c>
       <c r="L109"/>
       <c r="M109" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -6791,16 +6793,16 @@
         <v>61</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
+        <v>171</v>
+      </c>
+      <c r="D110" t="s">
         <v>172</v>
       </c>
-      <c r="D110" t="s">
-        <v>173</v>
-      </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F110">
         <v>8</v>
@@ -6813,7 +6815,7 @@
       </c>
       <c r="L110"/>
       <c r="M110" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -6826,13 +6828,13 @@
         <v>62</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" t="s">
         <v>168</v>
-      </c>
-      <c r="D111" t="s">
-        <v>169</v>
       </c>
       <c r="E111" t="s">
         <v>84</v>
@@ -6848,7 +6850,7 @@
       </c>
       <c r="L111"/>
       <c r="M111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
@@ -6861,16 +6863,16 @@
         <v>63</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D112" t="s">
         <v>166</v>
       </c>
-      <c r="D112" t="s">
-        <v>167</v>
-      </c>
       <c r="E112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F112">
         <v>8</v>
@@ -6879,11 +6881,11 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L112"/>
       <c r="M112" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -6896,13 +6898,13 @@
         <v>64</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" t="s">
         <v>162</v>
-      </c>
-      <c r="D113" t="s">
-        <v>163</v>
       </c>
       <c r="E113" t="s">
         <v>84</v>
@@ -6918,7 +6920,7 @@
       </c>
       <c r="L113"/>
       <c r="M113" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N113"/>
       <c r="O113"/>
@@ -6931,16 +6933,16 @@
         <v>65</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C114" t="s">
+        <v>163</v>
+      </c>
+      <c r="D114" t="s">
         <v>164</v>
       </c>
-      <c r="D114" t="s">
-        <v>165</v>
-      </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F114">
         <v>8</v>
@@ -6949,11 +6951,11 @@
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L114"/>
       <c r="M114" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -6966,13 +6968,13 @@
         <v>66</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D115" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E115" t="s">
         <v>84</v>
@@ -6988,7 +6990,7 @@
       </c>
       <c r="L115"/>
       <c r="M115" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N115"/>
       <c r="O115"/>
@@ -7001,13 +7003,13 @@
         <v>67</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C116" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D116" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E116" t="s">
         <v>84</v>
@@ -7023,7 +7025,7 @@
       </c>
       <c r="L116"/>
       <c r="M116" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -7036,13 +7038,13 @@
         <v>68</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D117" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E117" t="s">
         <v>84</v>
@@ -7053,14 +7055,14 @@
       <c r="G117"/>
       <c r="I117"/>
       <c r="J117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K117" t="s">
         <v>85</v>
       </c>
       <c r="L117"/>
       <c r="M117" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
@@ -7073,13 +7075,13 @@
         <v>69</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C118" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E118" t="s">
         <v>84</v>
@@ -7090,14 +7092,14 @@
       <c r="G118"/>
       <c r="I118"/>
       <c r="J118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K118" t="s">
         <v>85</v>
       </c>
       <c r="L118"/>
       <c r="M118" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -7345,7 +7347,7 @@
   <dimension ref="A1:J209"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
@@ -7394,14 +7396,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
@@ -7411,19 +7413,19 @@
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" s="22">
         <v>2</v>
@@ -7433,19 +7435,19 @@
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="22">
         <v>3</v>
@@ -7455,19 +7457,19 @@
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="22">
         <v>4</v>
@@ -7477,15 +7479,15 @@
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -7494,7 +7496,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>95</v>
@@ -7506,10 +7508,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -7518,7 +7520,7 @@
         <v>84</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>94</v>
@@ -7530,10 +7532,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -7542,19 +7544,19 @@
         <v>84</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -7566,7 +7568,7 @@
         <v>84</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>98</v>
@@ -7578,7 +7580,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -7590,7 +7592,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>99</v>
@@ -7602,7 +7604,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -7614,7 +7616,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>97</v>
@@ -7626,7 +7628,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -7638,7 +7640,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>96</v>
@@ -7650,7 +7652,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -7662,30 +7664,30 @@
         <v>84</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
@@ -7694,20 +7696,20 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G15"/>
       <c r="H15" t="s">
@@ -7716,20 +7718,20 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -7738,20 +7740,20 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
@@ -7760,32 +7762,32 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
@@ -7795,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -7804,10 +7806,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
@@ -7817,7 +7819,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -7826,10 +7828,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
@@ -7839,7 +7841,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -7848,14 +7850,14 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="23">
         <v>1</v>
@@ -7865,21 +7867,21 @@
       </c>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="23">
         <v>2</v>
@@ -7889,21 +7891,21 @@
       </c>
       <c r="G23"/>
       <c r="H23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" s="23">
         <v>3</v>
@@ -7913,17 +7915,17 @@
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
@@ -7933,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -7942,10 +7944,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
@@ -7955,7 +7957,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -7964,10 +7966,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
@@ -7977,21 +7979,21 @@
         <v>3</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E28" s="23">
         <v>1</v>
@@ -8001,19 +8003,19 @@
       </c>
       <c r="G28"/>
       <c r="H28" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E29" s="23">
         <v>2</v>
@@ -8023,19 +8025,19 @@
       </c>
       <c r="G29"/>
       <c r="H29" s="23" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="23">
         <v>3</v>
@@ -8045,12 +8047,12 @@
       </c>
       <c r="G30"/>
       <c r="H30" s="23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -8062,7 +8064,7 @@
         <v>84</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>100</v>
@@ -8076,7 +8078,7 @@
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -8088,7 +8090,7 @@
         <v>84</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>101</v>
@@ -8102,7 +8104,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -8114,7 +8116,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>102</v>
@@ -8128,7 +8130,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -8140,31 +8142,31 @@
         <v>84</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F34" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="G34" t="s">
+        <v>476</v>
+      </c>
+      <c r="H34" t="s">
         <v>477</v>
-      </c>
-      <c r="G34" t="s">
-        <v>478</v>
-      </c>
-      <c r="H34" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C35"/>
       <c r="D35" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>90</v>
@@ -8174,17 +8176,17 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C36"/>
       <c r="D36" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>92</v>
@@ -8194,10 +8196,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
@@ -8214,40 +8216,40 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39"/>
       <c r="H39" s="23" t="s">
@@ -8256,20 +8258,20 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G40"/>
       <c r="H40" s="23" t="s">
@@ -8278,17 +8280,17 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F41" s="23">
         <v>3</v>
@@ -8300,32 +8302,32 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G42"/>
       <c r="H42" s="23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B43" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C43" t="s">
         <v>89</v>
@@ -8334,7 +8336,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>93</v>
@@ -8348,10 +8350,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B44" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C44" t="s">
         <v>89</v>
@@ -8360,24 +8362,24 @@
         <v>84</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G44" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B45" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
@@ -8386,7 +8388,7 @@
         <v>84</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>102</v>
@@ -8400,10 +8402,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
@@ -8412,7 +8414,7 @@
         <v>84</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>103</v>
@@ -8426,10 +8428,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -8438,7 +8440,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>103</v>
@@ -8450,17 +8452,17 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>103</v>
@@ -8474,17 +8476,17 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>93</v>
@@ -8501,7 +8503,7 @@
         <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>
@@ -8510,7 +8512,7 @@
         <v>84</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>103</v>
@@ -8520,650 +8522,650 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D51" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F51" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G51" t="s">
+        <v>436</v>
+      </c>
+      <c r="H51" s="23" t="s">
         <v>437</v>
-      </c>
-      <c r="G51" t="s">
-        <v>438</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D52" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F52" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" t="s">
+        <v>439</v>
+      </c>
+      <c r="H52" s="23" t="s">
         <v>440</v>
-      </c>
-      <c r="G52" t="s">
-        <v>441</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D53" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F53" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" t="s">
+        <v>442</v>
+      </c>
+      <c r="H53" s="23" t="s">
         <v>443</v>
-      </c>
-      <c r="G53" t="s">
-        <v>444</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D54" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F54" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="G54" t="s">
+        <v>445</v>
+      </c>
+      <c r="H54" s="23" t="s">
         <v>446</v>
-      </c>
-      <c r="G54" t="s">
-        <v>447</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D55" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F55" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>448</v>
+      </c>
+      <c r="H55" s="23" t="s">
         <v>449</v>
-      </c>
-      <c r="G55" t="s">
-        <v>450</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D56" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F56" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="G56" t="s">
+        <v>451</v>
+      </c>
+      <c r="H56" s="23" t="s">
         <v>452</v>
-      </c>
-      <c r="G56" t="s">
-        <v>453</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D57" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F57" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>454</v>
+      </c>
+      <c r="H57" s="23" t="s">
         <v>455</v>
-      </c>
-      <c r="G57" t="s">
-        <v>456</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D58" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F58" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="G58" t="s">
+        <v>457</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>458</v>
-      </c>
-      <c r="G58" t="s">
-        <v>459</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D59" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F59" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" t="s">
+        <v>460</v>
+      </c>
+      <c r="H59" s="23" t="s">
         <v>461</v>
-      </c>
-      <c r="G59" t="s">
-        <v>462</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D60" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G60" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H60"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D61" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H61"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D62" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H62"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D63" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G63" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H63"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D64" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G64" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H64"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D65" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G65" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H65"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D66" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G66" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H66"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D67" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G67" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H67"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G68" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H68"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B69" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C69"/>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G69"/>
       <c r="H69" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C70"/>
       <c r="D70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G70"/>
       <c r="H70" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C71"/>
       <c r="D71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72"/>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C73"/>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B74" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C74"/>
       <c r="D74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="23" t="s">
-        <v>228</v>
-      </c>
       <c r="F76" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B77" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -9367,16 +9369,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" t="s">
-        <v>204</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -9388,11 +9390,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9402,8 +9404,7 @@
     <col min="3" max="3" width="11.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="12" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" style="12" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="11"/>
   </cols>
@@ -9436,829 +9437,877 @@
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>495</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D49" s="12" t="s">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D50" s="12" t="s">
+    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="C53" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B54" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="C54" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D53" s="12" t="s">
+    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D55" s="12" t="s">
+      <c r="C57" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="C58" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="C59" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D58" s="12" t="s">
+    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>572</v>
-      </c>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76"/>
+      <c r="D76"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>

--- a/metadata/ADSL_ADVS_spec.xlsx
+++ b/metadata/ADSL_ADVS_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanny.Gautier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38911FAB-1D64-4B12-B5A8-126EF170450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401F15D-C7CF-4980-9BD1-A478FFE98BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28935" windowHeight="14670" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28935" windowHeight="14670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Documents" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Codelists!$A$1:$H$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Codelists!$A$1:$H$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Comments!$A$1:$D$272</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Datasets!$A$1:$I$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Dictionaries!$A$1:$E$1</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="592">
   <si>
     <t>Attribute</t>
   </si>
@@ -1887,13 +1887,13 @@
 Set to 'Y' to the latest and highest value (ordering by Analysis Date [ADVS.ADT] and Analysis Value [ADVS.AVAL]) by USUBJID, PARAMCD, AVISIT,  ATPT, DTYPE.</t>
   </si>
   <si>
-    <t>ADSL.SAFFL</t>
-  </si>
-  <si>
     <t>SUPPDM.ITT</t>
   </si>
   <si>
     <t>SUPPDM.SAFETY</t>
+  </si>
+  <si>
+    <t>ADSL_AGEGR1</t>
   </si>
 </sst>
 </file>
@@ -2653,11 +2653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19:M20"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,7 +3092,9 @@
       <c r="I11" t="s">
         <v>50</v>
       </c>
-      <c r="J11"/>
+      <c r="J11" t="s">
+        <v>591</v>
+      </c>
       <c r="K11" t="s">
         <v>85</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K15" t="s">
         <v>268</v>
@@ -3286,7 +3288,7 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
@@ -3325,7 +3327,7 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K17" t="s">
         <v>268</v>
@@ -3404,13 +3406,13 @@
         <v>264</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L19"/>
-      <c r="M19" t="s">
-        <v>386</v>
-      </c>
-      <c r="N19"/>
+      <c r="M19"/>
+      <c r="N19" s="12" t="s">
+        <v>589</v>
+      </c>
       <c r="O19" t="s">
         <v>283</v>
       </c>
@@ -3418,7 +3420,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -3445,11 +3447,12 @@
         <v>264</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L20"/>
-      <c r="M20" t="s">
-        <v>589</v>
+      <c r="M20"/>
+      <c r="N20" s="12" t="s">
+        <v>590</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
@@ -7344,18 +7347,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="26.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="12" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="12" customWidth="1"/>
@@ -7396,20 +7399,20 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E2" s="22">
         <v>1</v>
       </c>
-      <c r="F2" s="22">
-        <v>1</v>
+      <c r="F2" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="20" t="s">
@@ -7418,20 +7421,20 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E3" s="22">
         <v>2</v>
       </c>
-      <c r="F3" s="22">
-        <v>2</v>
+      <c r="F3" s="20" t="s">
+        <v>465</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="20" t="s">
@@ -7440,20 +7443,20 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E4" s="22">
         <v>3</v>
       </c>
-      <c r="F4" s="22">
-        <v>3</v>
+      <c r="F4" s="20" t="s">
+        <v>466</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="20" t="s">
@@ -7472,63 +7475,59 @@
         <v>226</v>
       </c>
       <c r="E5" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="20" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A6" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="21"/>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6"/>
+        <v>226</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" t="s">
-        <v>571</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="A7" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="21"/>
       <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7"/>
+        <v>226</v>
+      </c>
+      <c r="E7" s="22">
+        <v>3</v>
+      </c>
+      <c r="F7" s="22">
+        <v>3</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7544,61 +7543,61 @@
         <v>84</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>468</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>469</v>
+        <v>105</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>571</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>571</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>99</v>
+        <v>468</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>469</v>
       </c>
       <c r="H10"/>
     </row>
@@ -7616,13 +7615,13 @@
         <v>84</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H11"/>
     </row>
@@ -7640,13 +7639,13 @@
         <v>84</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H12"/>
     </row>
@@ -7664,57 +7663,61 @@
         <v>84</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="G13"/>
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14"/>
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
       <c r="D14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>211</v>
+        <v>84</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15"/>
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
       <c r="D15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>210</v>
+        <v>84</v>
+      </c>
+      <c r="E15" s="23">
+        <v>5</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="G15"/>
-      <c r="H15" t="s">
-        <v>99</v>
-      </c>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -7728,14 +7731,14 @@
         <v>226</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7750,14 +7753,14 @@
         <v>226</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7772,59 +7775,59 @@
         <v>226</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>470</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
+        <v>226</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>471</v>
+        <v>214</v>
       </c>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="3"/>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="23">
-        <v>2</v>
+        <v>226</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>472</v>
+        <v>223</v>
       </c>
       <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="3"/>
+      <c r="H20" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7838,10 +7841,10 @@
         <v>84</v>
       </c>
       <c r="E21" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -7850,51 +7853,47 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>472</v>
       </c>
       <c r="G22"/>
-      <c r="H22" t="s">
-        <v>471</v>
-      </c>
-      <c r="I22" s="17"/>
+      <c r="H22"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E23" s="23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="23">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>467</v>
       </c>
       <c r="G23"/>
-      <c r="H23" t="s">
-        <v>472</v>
-      </c>
+      <c r="H23"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7908,61 +7907,65 @@
         <v>226</v>
       </c>
       <c r="E24" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>467</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="4"/>
+        <v>471</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>575</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="E25" s="23">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>473</v>
+        <v>2</v>
+      </c>
+      <c r="F25" s="23">
+        <v>2</v>
       </c>
       <c r="G25"/>
-      <c r="H25"/>
+      <c r="H25" t="s">
+        <v>472</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>575</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="E26" s="23">
-        <v>2</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>474</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="23">
+        <v>3</v>
       </c>
       <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="3"/>
+      <c r="H26" t="s">
+        <v>467</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7976,57 +7979,57 @@
         <v>84</v>
       </c>
       <c r="E27" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E28" s="23">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>474</v>
       </c>
       <c r="G28"/>
-      <c r="H28" s="23" t="s">
-        <v>473</v>
-      </c>
+      <c r="H28"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E29" s="23">
-        <v>2</v>
-      </c>
-      <c r="F29" s="23">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>467</v>
       </c>
       <c r="G29"/>
-      <c r="H29" s="23" t="s">
-        <v>474</v>
-      </c>
+      <c r="H29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -8040,66 +8043,58 @@
         <v>226</v>
       </c>
       <c r="E30" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="23" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>576</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C31"/>
       <c r="D31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="E31" s="23">
+        <v>2</v>
+      </c>
+      <c r="F31" s="23">
+        <v>2</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" s="23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>576</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C32"/>
       <c r="D32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" t="s">
-        <v>116</v>
+        <v>226</v>
+      </c>
+      <c r="E32" s="23">
+        <v>3</v>
+      </c>
+      <c r="F32" s="23">
+        <v>3</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" s="23" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8116,19 +8111,19 @@
         <v>84</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>576</v>
       </c>
@@ -8142,57 +8137,69 @@
         <v>84</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>475</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>476</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>477</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>576</v>
       </c>
       <c r="B35" t="s">
-        <v>577</v>
-      </c>
-      <c r="C35"/>
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
       <c r="D35" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35"/>
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>265</v>
+        <v>576</v>
       </c>
       <c r="B36" t="s">
-        <v>577</v>
-      </c>
-      <c r="C36"/>
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
       <c r="D36" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36"/>
+        <v>475</v>
+      </c>
+      <c r="G36" t="s">
+        <v>476</v>
+      </c>
+      <c r="H36" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -8205,11 +8212,11 @@
       <c r="D37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="23">
-        <v>3</v>
+      <c r="E37" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
@@ -8226,57 +8233,53 @@
         <v>84</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>479</v>
+        <v>210</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>478</v>
+        <v>92</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>211</v>
+        <v>84</v>
+      </c>
+      <c r="E39" s="23">
+        <v>3</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="G39"/>
-      <c r="H39" s="23" t="s">
-        <v>90</v>
-      </c>
+      <c r="H39"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>210</v>
+        <v>479</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="G40"/>
-      <c r="H40" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="H40"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -8290,14 +8293,14 @@
         <v>226</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="23">
-        <v>3</v>
+        <v>211</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="G41"/>
       <c r="H41" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -8312,66 +8315,58 @@
         <v>226</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>479</v>
+        <v>210</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>479</v>
+        <v>210</v>
       </c>
       <c r="G42"/>
       <c r="H42" s="23" t="s">
-        <v>478</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>480</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s">
-        <v>481</v>
-      </c>
-      <c r="C43" t="s">
-        <v>89</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="C43"/>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" t="s">
-        <v>50</v>
+        <v>479</v>
+      </c>
+      <c r="F43" s="23">
+        <v>3</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>481</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="C44"/>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>210</v>
+        <v>479</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="G44" t="s">
-        <v>482</v>
-      </c>
-      <c r="H44" t="s">
-        <v>483</v>
+        <v>479</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" s="23" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -8388,16 +8383,16 @@
         <v>84</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -8414,24 +8409,24 @@
         <v>84</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>103</v>
+        <v>473</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>482</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>480</v>
       </c>
       <c r="B47" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -8440,29 +8435,33 @@
         <v>84</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47"/>
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="B48" t="s">
-        <v>485</v>
-      </c>
-      <c r="C48"/>
+        <v>481</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
       <c r="D48" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>103</v>
@@ -8476,38 +8475,36 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
-        <v>485</v>
-      </c>
-      <c r="C49"/>
+        <v>484</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
       <c r="D49" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" t="s">
-        <v>113</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G49"/>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>486</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="C50"/>
       <c r="D50" t="s">
         <v>84</v>
       </c>
@@ -8517,60 +8514,58 @@
       <c r="F50" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
+      <c r="G50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>371</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" t="s">
-        <v>434</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="C51"/>
       <c r="D51" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>435</v>
+        <v>93</v>
       </c>
       <c r="G51" t="s">
-        <v>436</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>437</v>
+        <v>113</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>486</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="G52" t="s">
-        <v>439</v>
-      </c>
-      <c r="H52" s="23" t="s">
-        <v>440</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -8586,16 +8581,16 @@
         <v>84</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G53" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -8612,16 +8607,16 @@
         <v>84</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G54" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -8638,16 +8633,16 @@
         <v>84</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G55" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -8664,16 +8659,16 @@
         <v>84</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G56" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -8690,16 +8685,16 @@
         <v>84</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -8716,16 +8711,16 @@
         <v>84</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G58" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -8742,65 +8737,69 @@
         <v>84</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G59" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="D60" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="G60" t="s">
-        <v>436</v>
-      </c>
-      <c r="H60"/>
+        <v>457</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="D61" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="G61" t="s">
-        <v>439</v>
-      </c>
-      <c r="H61"/>
+        <v>460</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -8816,13 +8815,13 @@
         <v>84</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G62" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H62"/>
     </row>
@@ -8840,13 +8839,13 @@
         <v>84</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H63"/>
     </row>
@@ -8864,13 +8863,13 @@
         <v>84</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G64" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H64"/>
     </row>
@@ -8888,13 +8887,13 @@
         <v>84</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G65" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H65"/>
     </row>
@@ -8912,13 +8911,13 @@
         <v>84</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G66" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H66"/>
     </row>
@@ -8936,13 +8935,13 @@
         <v>84</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G67" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H67"/>
     </row>
@@ -8960,59 +8959,63 @@
         <v>84</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G68" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H68"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
-      </c>
-      <c r="C69"/>
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>462</v>
+      </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69" t="s">
-        <v>435</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>457</v>
+      </c>
+      <c r="H69"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
-      </c>
-      <c r="C70"/>
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>462</v>
+      </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="G70"/>
-      <c r="H70" t="s">
-        <v>438</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="G70" t="s">
+        <v>460</v>
+      </c>
+      <c r="H70"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -9026,14 +9029,14 @@
         <v>226</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G71"/>
       <c r="H71" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -9048,14 +9051,14 @@
         <v>226</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G72"/>
       <c r="H72" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -9070,14 +9073,14 @@
         <v>226</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -9092,14 +9095,14 @@
         <v>226</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -9114,14 +9117,14 @@
         <v>226</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -9136,14 +9139,14 @@
         <v>226</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G76"/>
       <c r="H76" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -9158,35 +9161,62 @@
         <v>226</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="G77"/>
       <c r="H77" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>372</v>
+      </c>
+      <c r="B78" t="s">
+        <v>347</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>372</v>
+      </c>
+      <c r="B79" t="s">
+        <v>347</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-    </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -9194,22 +9224,149 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+    </row>
     <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -9323,8 +9480,10 @@
     <row r="207" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="208" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="209" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:H82" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
+  <autoFilter ref="A1:H84" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9392,9 +9551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10261,34 +10420,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>590</v>
-      </c>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>591</v>
-      </c>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I62"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">

--- a/metadata/ADSL_ADVS_spec.xlsx
+++ b/metadata/ADSL_ADVS_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fanny.Gautier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8401F15D-C7CF-4980-9BD1-A478FFE98BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E28576-DC8A-4FB9-8628-58B606792BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28935" windowHeight="14670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38355" windowHeight="19995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="607">
   <si>
     <t>Attribute</t>
   </si>
@@ -1485,9 +1485,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>RoW</t>
-  </si>
-  <si>
     <t>UNDIFFERENTIATED</t>
   </si>
   <si>
@@ -1720,14 +1717,6 @@
   </si>
   <si>
     <t>if Date of First Exposure to Treatment is not missing [ADSL.TRTSDT] and Date of Last Exposure to Treatment is not missing [ADSL.TRTEDT] then set to difference of Date of Last Exposure to Treatment and Date of First Exposure to Treatment: [ADSL.TRTEDT] - [ADSL.TRTSDT]</t>
-  </si>
-  <si>
-    <t>if Description of Actual Arm [DM.ACTARM] is in ("Screen Failure", "Not Assigned", "Not Treated") then set Actual Treatment for Period 01 [ADSL.TRT01A] to "No Treatment";
-else Actual Treatment for Period 01 [ADSL.TRT01A] = Description of Actual Arm [DM.ACTARM]</t>
-  </si>
-  <si>
-    <t>if Description of Planned Arm [DM.ARM] is in ("Screen Failure", "Not Assigned", "Not Treated") then set Planned Treatment for Period 01 [ADSL.TRT01P] to "No Treatment";
-else Planned Treatment for Period 01 [ADSL.TRT01P] = Description of Planned Arm [DM.ARM]</t>
   </si>
   <si>
     <t>Date portion of latest End Date/Time of Treatment [EX.EXENDTC] in the study, where the Dose [EX.EXDOSE] is not missing.</t>
@@ -1890,17 +1879,73 @@
     <t>SUPPDM.ITT</t>
   </si>
   <si>
-    <t>SUPPDM.SAFETY</t>
-  </si>
-  <si>
     <t>ADSL_AGEGR1</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Rest of the World</t>
+  </si>
+  <si>
+    <t>ADSL.SAFFL</t>
+  </si>
+  <si>
+    <t>Set to "Y" if Dose [EX.EXDOSE] is greater than zero, or if Dose [EX.EXDOSE] equals 0 and Name of Treatment [EX.EXTRT] contains "PLACEBO"</t>
+  </si>
+  <si>
+    <t>Set to "Y" when Randomization Date [ADSL.RANDDT] is not missing.</t>
+  </si>
+  <si>
+    <t>DTHDTC</t>
+  </si>
+  <si>
+    <t>Date/Time of Death</t>
+  </si>
+  <si>
+    <t>DM.DTHDTC</t>
+  </si>
+  <si>
+    <t>Date portion of non-missing Date/Time of Death [DM.DTHDTC]. Impute partial dates to first day/month.</t>
+  </si>
+  <si>
+    <t>DTHDTF</t>
+  </si>
+  <si>
+    <t>ADSL.DTHDTF</t>
+  </si>
+  <si>
+    <t>Set to "M" where Date of Death [ADSL.DTHDT] is imputed</t>
+  </si>
+  <si>
+    <t>Date of Death Imputation Flag</t>
+  </si>
+  <si>
+    <t>DTHCGR1N</t>
+  </si>
+  <si>
+    <t>Death Cause Category (N)</t>
+  </si>
+  <si>
+    <t>ADSL.DTHCGR1N</t>
+  </si>
+  <si>
+    <t>if Description of Actual Arm [DM.ACTARM] is in ("Screen Failure", "Not Assigned", "Not Treated") then set Actual Treatment for Period 01 [ADSL.TRT01A] to "No Treatment";
+else Actual Treatment for Period 01 [ADSL.TRT01A] = Description of Actual Arm [DM.ACTARM]</t>
+  </si>
+  <si>
+    <t>if Description of Planned Arm [DM.ARM] is in ("Screen Failure", "Not Assigned", "Not Treated") then set Planned Treatment for Period 01 [ADSL.TRT01P] to "No Treatment";
+else Planned Treatment for Period 01 [ADSL.TRT01P] = Description of Planned Arm [DM.ARM]</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1962,6 +2007,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1998,7 +2049,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2056,6 +2107,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2393,7 +2447,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2401,7 +2455,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2651,13 +2705,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2747,7 +2801,7 @@
         <v>84</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2"/>
       <c r="I2" t="s">
@@ -2936,7 +2990,7 @@
         <v>84</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7"/>
       <c r="I7" t="s">
@@ -3086,14 +3140,14 @@
         <v>84</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11"/>
       <c r="I11" t="s">
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
@@ -3169,7 +3223,7 @@
         <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K13" t="s">
         <v>23</v>
@@ -3210,7 +3264,7 @@
         <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K14" t="s">
         <v>23</v>
@@ -3251,7 +3305,7 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K15" t="s">
         <v>268</v>
@@ -3288,7 +3342,7 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K16" t="s">
         <v>85</v>
@@ -3327,7 +3381,7 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K17" t="s">
         <v>268</v>
@@ -3411,7 +3465,7 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" s="12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="O19" t="s">
         <v>283</v>
@@ -3420,7 +3474,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -3450,10 +3504,10 @@
         <v>23</v>
       </c>
       <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20" s="12" t="s">
+      <c r="M20" t="s">
         <v>590</v>
       </c>
+      <c r="N20" s="12"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
@@ -3907,8 +3961,8 @@
       <c r="D32" t="s">
         <v>245</v>
       </c>
-      <c r="E32" t="s">
-        <v>226</v>
+      <c r="E32" s="24" t="s">
+        <v>606</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -4173,33 +4227,30 @@
         <v>215</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>593</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>594</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39"/>
-      <c r="H39" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="I39" t="s">
         <v>50</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L39"/>
-      <c r="M39" t="s">
-        <v>301</v>
-      </c>
-      <c r="N39"/>
+      <c r="M39"/>
+      <c r="N39" t="s">
+        <v>595</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
@@ -4213,32 +4264,33 @@
         <v>215</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G40"/>
+      <c r="H40" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="I40" t="s">
         <v>50</v>
       </c>
-      <c r="J40" t="s">
-        <v>267</v>
-      </c>
+      <c r="J40"/>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40" t="s">
-        <v>302</v>
-      </c>
+      <c r="M40" t="s">
+        <v>301</v>
+      </c>
+      <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
@@ -4252,16 +4304,16 @@
         <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>597</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>600</v>
       </c>
       <c r="E41" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G41"/>
       <c r="I41" t="s">
@@ -4273,7 +4325,7 @@
       </c>
       <c r="L41"/>
       <c r="M41" t="s">
-        <v>303</v>
+        <v>598</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -4289,30 +4341,32 @@
         <v>215</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G42"/>
       <c r="I42" t="s">
         <v>50</v>
       </c>
-      <c r="J42"/>
+      <c r="J42" t="s">
+        <v>267</v>
+      </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L42"/>
-      <c r="M42" t="s">
-        <v>304</v>
-      </c>
-      <c r="N42"/>
+      <c r="M42"/>
+      <c r="N42" t="s">
+        <v>302</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
@@ -4326,16 +4380,16 @@
         <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F43">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G43"/>
       <c r="I43" t="s">
@@ -4347,7 +4401,7 @@
       </c>
       <c r="L43"/>
       <c r="M43" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -4363,16 +4417,16 @@
         <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F44">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G44"/>
       <c r="I44" t="s">
@@ -4384,7 +4438,7 @@
       </c>
       <c r="L44"/>
       <c r="M44" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -4400,10 +4454,10 @@
         <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E45" t="s">
         <v>84</v>
@@ -4421,7 +4475,7 @@
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -4437,21 +4491,18 @@
         <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="E46" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G46"/>
-      <c r="H46" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="I46" t="s">
         <v>50</v>
       </c>
@@ -4461,7 +4512,7 @@
       </c>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -4477,21 +4528,18 @@
         <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G47"/>
-      <c r="H47" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="I47" t="s">
         <v>50</v>
       </c>
@@ -4501,7 +4549,7 @@
       </c>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -4517,16 +4565,16 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>601</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>602</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F48">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G48"/>
       <c r="I48" t="s">
@@ -4538,7 +4586,7 @@
       </c>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>310</v>
+        <v>603</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -4554,10 +4602,10 @@
         <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
         <v>226</v>
@@ -4578,7 +4626,7 @@
       </c>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -4588,36 +4636,39 @@
     </row>
     <row r="50" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G50"/>
+      <c r="H50" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50" t="s">
-        <v>374</v>
-      </c>
+      <c r="M50" t="s">
+        <v>309</v>
+      </c>
+      <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
@@ -4625,36 +4676,36 @@
     </row>
     <row r="51" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
         <v>84</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G51"/>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51" t="s">
-        <v>375</v>
-      </c>
+      <c r="M51" t="s">
+        <v>310</v>
+      </c>
+      <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
@@ -4662,36 +4713,39 @@
     </row>
     <row r="52" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G52"/>
+      <c r="H52" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="I52" t="s">
         <v>50</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52" t="s">
-        <v>376</v>
-      </c>
+      <c r="M52" t="s">
+        <v>311</v>
+      </c>
+      <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
@@ -4699,26 +4753,26 @@
     </row>
     <row r="53" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
         <v>84</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G53"/>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
@@ -4727,7 +4781,7 @@
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O53"/>
       <c r="P53"/>
@@ -4736,36 +4790,36 @@
     </row>
     <row r="54" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G54"/>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="L54"/>
-      <c r="M54" t="s">
-        <v>378</v>
-      </c>
-      <c r="N54"/>
+      <c r="M54"/>
+      <c r="N54" t="s">
+        <v>375</v>
+      </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
@@ -4773,22 +4827,22 @@
     </row>
     <row r="55" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
         <v>84</v>
       </c>
       <c r="F55">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G55"/>
       <c r="I55" t="s">
@@ -4801,7 +4855,7 @@
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O55"/>
       <c r="P55"/>
@@ -4810,22 +4864,22 @@
     </row>
     <row r="56" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
         <v>84</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G56"/>
       <c r="I56" t="s">
@@ -4838,7 +4892,7 @@
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O56"/>
       <c r="P56"/>
@@ -4847,22 +4901,22 @@
     </row>
     <row r="57" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F57">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G57"/>
       <c r="I57" t="s">
@@ -4870,13 +4924,13 @@
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57" t="s">
-        <v>381</v>
-      </c>
+      <c r="M57" t="s">
+        <v>378</v>
+      </c>
+      <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
@@ -4884,26 +4938,26 @@
     </row>
     <row r="58" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F58">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G58"/>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
@@ -4912,7 +4966,7 @@
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O58"/>
       <c r="P58"/>
@@ -4921,26 +4975,26 @@
     </row>
     <row r="59" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s">
         <v>84</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G59"/>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
@@ -4949,7 +5003,7 @@
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O59"/>
       <c r="P59"/>
@@ -4958,37 +5012,35 @@
     </row>
     <row r="60" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="E60" t="s">
         <v>84</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="G60"/>
       <c r="I60" t="s">
-        <v>49</v>
-      </c>
-      <c r="J60" t="s">
-        <v>576</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J60"/>
       <c r="K60" t="s">
         <v>23</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O60"/>
       <c r="P60"/>
@@ -4997,37 +5049,35 @@
     </row>
     <row r="61" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F61">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G61"/>
       <c r="I61" t="s">
         <v>49</v>
       </c>
-      <c r="J61" t="s">
-        <v>572</v>
-      </c>
+      <c r="J61"/>
       <c r="K61" t="s">
         <v>23</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O61"/>
       <c r="P61"/>
@@ -5036,37 +5086,35 @@
     </row>
     <row r="62" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
         <v>84</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G62"/>
       <c r="I62" t="s">
-        <v>50</v>
-      </c>
-      <c r="J62" t="s">
-        <v>264</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J62"/>
       <c r="K62" t="s">
         <v>23</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O62"/>
       <c r="P62"/>
@@ -5075,29 +5123,29 @@
     </row>
     <row r="63" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
         <v>84</v>
       </c>
       <c r="F63">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G63"/>
       <c r="I63" t="s">
         <v>49</v>
       </c>
       <c r="J63" t="s">
-        <v>265</v>
+        <v>573</v>
       </c>
       <c r="K63" t="s">
         <v>23</v>
@@ -5105,7 +5153,7 @@
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="O63"/>
       <c r="P63"/>
@@ -5114,29 +5162,29 @@
     </row>
     <row r="64" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
         <v>84</v>
       </c>
       <c r="F64">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G64"/>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J64" t="s">
-        <v>265</v>
+        <v>569</v>
       </c>
       <c r="K64" t="s">
         <v>23</v>
@@ -5144,7 +5192,7 @@
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="O64"/>
       <c r="P64"/>
@@ -5153,38 +5201,37 @@
     </row>
     <row r="65" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G65"/>
-      <c r="H65" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="I65" t="s">
         <v>50</v>
       </c>
-      <c r="J65"/>
+      <c r="J65" t="s">
+        <v>264</v>
+      </c>
       <c r="K65" t="s">
         <v>23</v>
       </c>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="O65"/>
       <c r="P65"/>
@@ -5193,38 +5240,37 @@
     </row>
     <row r="66" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E66" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G66"/>
-      <c r="H66" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="I66" t="s">
-        <v>50</v>
-      </c>
-      <c r="J66"/>
+        <v>49</v>
+      </c>
+      <c r="J66" t="s">
+        <v>265</v>
+      </c>
       <c r="K66" t="s">
         <v>23</v>
       </c>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O66"/>
       <c r="P66"/>
@@ -5233,38 +5279,37 @@
     </row>
     <row r="67" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E67" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F67">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G67"/>
-      <c r="H67" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="I67" t="s">
         <v>50</v>
       </c>
-      <c r="J67"/>
+      <c r="J67" t="s">
+        <v>265</v>
+      </c>
       <c r="K67" t="s">
         <v>23</v>
       </c>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O67"/>
       <c r="P67"/>
@@ -5273,24 +5318,27 @@
     </row>
     <row r="68" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G68"/>
+      <c r="H68" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="I68" t="s">
         <v>50</v>
       </c>
@@ -5301,7 +5349,7 @@
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="O68"/>
       <c r="P68"/>
@@ -5310,24 +5358,27 @@
     </row>
     <row r="69" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
       <c r="G69"/>
+      <c r="H69" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="I69" t="s">
         <v>50</v>
       </c>
@@ -5338,7 +5389,7 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="O69"/>
       <c r="P69"/>
@@ -5347,24 +5398,27 @@
     </row>
     <row r="70" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F70">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G70"/>
+      <c r="H70" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="I70" t="s">
         <v>50</v>
       </c>
@@ -5375,7 +5429,7 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="O70"/>
       <c r="P70"/>
@@ -5384,22 +5438,22 @@
     </row>
     <row r="71" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D71" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
         <v>84</v>
       </c>
       <c r="F71">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G71"/>
       <c r="I71" t="s">
@@ -5412,7 +5466,7 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O71"/>
       <c r="P71"/>
@@ -5421,22 +5475,22 @@
     </row>
     <row r="72" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="E72" t="s">
         <v>84</v>
       </c>
       <c r="F72">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G72"/>
       <c r="I72" t="s">
@@ -5449,7 +5503,7 @@
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O72"/>
       <c r="P72"/>
@@ -5458,16 +5512,16 @@
     </row>
     <row r="73" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="E73" t="s">
         <v>84</v>
@@ -5486,7 +5540,7 @@
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O73"/>
       <c r="P73"/>
@@ -5495,22 +5549,22 @@
     </row>
     <row r="74" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="E74" t="s">
         <v>84</v>
       </c>
       <c r="F74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G74"/>
       <c r="I74" t="s">
@@ -5523,7 +5577,7 @@
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O74"/>
       <c r="P74"/>
@@ -5532,22 +5586,22 @@
     </row>
     <row r="75" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="G75"/>
       <c r="I75" t="s">
@@ -5560,7 +5614,7 @@
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O75"/>
       <c r="P75"/>
@@ -5569,16 +5623,16 @@
     </row>
     <row r="76" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E76" t="s">
         <v>84</v>
@@ -5597,7 +5651,7 @@
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O76"/>
       <c r="P76"/>
@@ -5606,22 +5660,22 @@
     </row>
     <row r="77" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C77" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D77" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="E77" t="s">
         <v>84</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="G77"/>
       <c r="I77" t="s">
@@ -5634,7 +5688,7 @@
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="O77"/>
       <c r="P77"/>
@@ -5643,22 +5697,22 @@
     </row>
     <row r="78" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D78" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
+        <v>324</v>
       </c>
       <c r="F78">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G78"/>
       <c r="I78" t="s">
@@ -5671,7 +5725,7 @@
       <c r="L78"/>
       <c r="M78"/>
       <c r="N78" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="O78"/>
       <c r="P78"/>
@@ -5680,22 +5734,22 @@
     </row>
     <row r="79" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>331</v>
+        <v>192</v>
       </c>
       <c r="E79" t="s">
         <v>84</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G79"/>
       <c r="I79" t="s">
@@ -5708,7 +5762,7 @@
       <c r="L79"/>
       <c r="M79"/>
       <c r="N79" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O79"/>
       <c r="P79"/>
@@ -5717,19 +5771,19 @@
     </row>
     <row r="80" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="E80" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -5745,7 +5799,7 @@
       <c r="L80"/>
       <c r="M80"/>
       <c r="N80" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="O80"/>
       <c r="P80"/>
@@ -5754,16 +5808,16 @@
     </row>
     <row r="81" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>328</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>329</v>
       </c>
       <c r="E81" t="s">
         <v>84</v>
@@ -5782,7 +5836,7 @@
       <c r="L81"/>
       <c r="M81"/>
       <c r="N81" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O81"/>
       <c r="P81"/>
@@ -5791,22 +5845,22 @@
     </row>
     <row r="82" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E82" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="F82">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G82"/>
       <c r="I82" t="s">
@@ -5819,7 +5873,7 @@
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O82"/>
       <c r="P82"/>
@@ -5828,16 +5882,16 @@
     </row>
     <row r="83" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C83" t="s">
-        <v>335</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
         <v>226</v>
@@ -5856,7 +5910,7 @@
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="O83"/>
       <c r="P83"/>
@@ -5865,22 +5919,22 @@
     </row>
     <row r="84" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>337</v>
+        <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="E84" t="s">
         <v>84</v>
       </c>
       <c r="F84">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G84"/>
       <c r="I84" t="s">
@@ -5893,7 +5947,7 @@
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O84"/>
       <c r="P84"/>
@@ -5902,22 +5956,22 @@
     </row>
     <row r="85" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>334</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G85"/>
       <c r="I85" t="s">
@@ -5930,7 +5984,7 @@
       <c r="L85"/>
       <c r="M85"/>
       <c r="N85" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O85"/>
       <c r="P85"/>
@@ -5939,22 +5993,22 @@
     </row>
     <row r="86" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D86" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F86">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G86"/>
       <c r="I86" t="s">
@@ -5967,7 +6021,7 @@
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O86"/>
       <c r="P86"/>
@@ -5976,22 +6030,22 @@
     </row>
     <row r="87" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D87" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G87"/>
       <c r="I87" t="s">
@@ -6004,7 +6058,7 @@
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="O87"/>
       <c r="P87"/>
@@ -6013,16 +6067,16 @@
     </row>
     <row r="88" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D88" t="s">
-        <v>344</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
         <v>226</v>
@@ -6041,7 +6095,7 @@
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="O88"/>
       <c r="P88"/>
@@ -6050,22 +6104,22 @@
     </row>
     <row r="89" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D89" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E89" t="s">
         <v>84</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G89"/>
       <c r="I89" t="s">
@@ -6078,7 +6132,7 @@
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O89"/>
       <c r="P89"/>
@@ -6087,36 +6141,36 @@
     </row>
     <row r="90" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>341</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>342</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F90">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G90"/>
       <c r="I90" t="s">
-        <v>49</v>
-      </c>
-      <c r="J90" t="s">
-        <v>371</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J90"/>
       <c r="K90" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
-      <c r="N90"/>
+      <c r="N90" t="s">
+        <v>406</v>
+      </c>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
@@ -6124,16 +6178,16 @@
     </row>
     <row r="91" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>343</v>
       </c>
       <c r="D91" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E91" t="s">
         <v>226</v>
@@ -6145,15 +6199,15 @@
       <c r="I91" t="s">
         <v>50</v>
       </c>
-      <c r="J91" t="s">
-        <v>372</v>
-      </c>
+      <c r="J91"/>
       <c r="K91" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
-      <c r="N91"/>
+      <c r="N91" t="s">
+        <v>407</v>
+      </c>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
@@ -6161,16 +6215,16 @@
     </row>
     <row r="92" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>346</v>
       </c>
       <c r="E92" t="s">
         <v>84</v>
@@ -6180,17 +6234,17 @@
       </c>
       <c r="G92"/>
       <c r="I92" t="s">
-        <v>49</v>
-      </c>
-      <c r="J92" t="s">
-        <v>373</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J92"/>
       <c r="K92" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
-      <c r="N92"/>
+      <c r="N92" t="s">
+        <v>408</v>
+      </c>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
@@ -6198,33 +6252,35 @@
     </row>
     <row r="93" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="G93"/>
-      <c r="I93"/>
-      <c r="J93"/>
+      <c r="I93" t="s">
+        <v>49</v>
+      </c>
+      <c r="J93" t="s">
+        <v>371</v>
+      </c>
       <c r="K93" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L93"/>
-      <c r="M93" t="s">
-        <v>409</v>
-      </c>
+      <c r="M93"/>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
@@ -6233,33 +6289,35 @@
     </row>
     <row r="94" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D94" t="s">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="E94" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F94">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G94"/>
-      <c r="I94"/>
-      <c r="J94"/>
+      <c r="I94" t="s">
+        <v>50</v>
+      </c>
+      <c r="J94" t="s">
+        <v>372</v>
+      </c>
       <c r="K94" t="s">
         <v>268</v>
       </c>
       <c r="L94"/>
-      <c r="M94" t="s">
-        <v>410</v>
-      </c>
+      <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
@@ -6268,33 +6326,35 @@
     </row>
     <row r="95" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E95" t="s">
         <v>84</v>
       </c>
       <c r="F95">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G95"/>
-      <c r="I95"/>
-      <c r="J95"/>
+      <c r="I95" t="s">
+        <v>49</v>
+      </c>
+      <c r="J95" t="s">
+        <v>373</v>
+      </c>
       <c r="K95" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L95"/>
-      <c r="M95" t="s">
-        <v>411</v>
-      </c>
+      <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
@@ -6303,19 +6363,19 @@
     </row>
     <row r="96" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C96" t="s">
-        <v>348</v>
+        <v>175</v>
       </c>
       <c r="D96" t="s">
-        <v>349</v>
+        <v>176</v>
       </c>
       <c r="E96" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -6324,10 +6384,12 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="L96"/>
-      <c r="M96"/>
+      <c r="M96" t="s">
+        <v>409</v>
+      </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
@@ -6336,32 +6398,32 @@
     </row>
     <row r="97" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G97"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L97"/>
       <c r="M97" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
@@ -6371,32 +6433,32 @@
     </row>
     <row r="98" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
         <v>84</v>
       </c>
       <c r="F98">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G98"/>
       <c r="I98"/>
       <c r="J98"/>
       <c r="K98" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="L98"/>
       <c r="M98" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N98"/>
       <c r="O98"/>
@@ -6406,35 +6468,31 @@
     </row>
     <row r="99" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="D99" t="s">
-        <v>180</v>
+        <v>349</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G99"/>
       <c r="I99"/>
-      <c r="J99" t="s">
-        <v>264</v>
-      </c>
+      <c r="J99"/>
       <c r="K99" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L99"/>
-      <c r="M99" t="s">
-        <v>414</v>
-      </c>
+      <c r="M99"/>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
@@ -6443,16 +6501,16 @@
     </row>
     <row r="100" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
         <v>324</v>
@@ -6468,7 +6526,7 @@
       </c>
       <c r="L100"/>
       <c r="M100" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N100"/>
       <c r="O100"/>
@@ -6478,32 +6536,32 @@
     </row>
     <row r="101" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="D101" t="s">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="E101" t="s">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G101"/>
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L101"/>
       <c r="M101" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
@@ -6513,32 +6571,34 @@
     </row>
     <row r="102" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C102" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
         <v>84</v>
       </c>
       <c r="F102">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G102"/>
       <c r="I102"/>
-      <c r="J102"/>
+      <c r="J102" t="s">
+        <v>264</v>
+      </c>
       <c r="K102" t="s">
         <v>85</v>
       </c>
       <c r="L102"/>
       <c r="M102" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -6548,16 +6608,16 @@
     </row>
     <row r="103" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>352</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
         <v>324</v>
@@ -6569,11 +6629,11 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="L103"/>
       <c r="M103" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N103"/>
       <c r="O103"/>
@@ -6583,16 +6643,16 @@
     </row>
     <row r="104" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E104" t="s">
         <v>324</v>
@@ -6604,11 +6664,11 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="L104"/>
       <c r="M104" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
@@ -6618,16 +6678,16 @@
     </row>
     <row r="105" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
         <v>84</v>
@@ -6643,7 +6703,7 @@
       </c>
       <c r="L105"/>
       <c r="M105" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N105"/>
       <c r="O105"/>
@@ -6653,32 +6713,32 @@
     </row>
     <row r="106" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C106" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D106" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E106" t="s">
-        <v>84</v>
+        <v>324</v>
       </c>
       <c r="F106">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G106"/>
       <c r="I106"/>
       <c r="J106"/>
       <c r="K106" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L106"/>
       <c r="M106" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
@@ -6688,16 +6748,16 @@
     </row>
     <row r="107" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D107" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E107" t="s">
         <v>324</v>
@@ -6713,7 +6773,7 @@
       </c>
       <c r="L107"/>
       <c r="M107" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -6723,32 +6783,32 @@
     </row>
     <row r="108" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E108" t="s">
-        <v>324</v>
+        <v>84</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G108"/>
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="L108"/>
       <c r="M108" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
@@ -6758,22 +6818,22 @@
     </row>
     <row r="109" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="D109" t="s">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="E109" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F109">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G109"/>
       <c r="I109"/>
@@ -6783,7 +6843,7 @@
       </c>
       <c r="L109"/>
       <c r="M109" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N109"/>
       <c r="O109"/>
@@ -6793,19 +6853,19 @@
     </row>
     <row r="110" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>360</v>
       </c>
       <c r="D110" t="s">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="E110" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="F110">
         <v>8</v>
@@ -6814,11 +6874,11 @@
       <c r="I110"/>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L110"/>
       <c r="M110" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
@@ -6828,32 +6888,32 @@
     </row>
     <row r="111" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C111" t="s">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="D111" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="E111" t="s">
-        <v>84</v>
+        <v>324</v>
       </c>
       <c r="F111">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G111"/>
       <c r="I111"/>
       <c r="J111"/>
       <c r="K111" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L111"/>
       <c r="M111" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
@@ -6863,16 +6923,16 @@
     </row>
     <row r="112" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D112" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E112" t="s">
         <v>226</v>
@@ -6884,11 +6944,11 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="L112"/>
       <c r="M112" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N112"/>
       <c r="O112"/>
@@ -6898,22 +6958,22 @@
     </row>
     <row r="113" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D113" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E113" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F113">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G113"/>
       <c r="I113"/>
@@ -6923,7 +6983,7 @@
       </c>
       <c r="L113"/>
       <c r="M113" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N113"/>
       <c r="O113"/>
@@ -6933,32 +6993,32 @@
     </row>
     <row r="114" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C114" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D114" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E114" t="s">
-        <v>226</v>
+        <v>84</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G114"/>
       <c r="I114"/>
       <c r="J114"/>
       <c r="K114" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="L114"/>
       <c r="M114" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -6968,32 +7028,32 @@
     </row>
     <row r="115" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C115" t="s">
-        <v>364</v>
+        <v>165</v>
       </c>
       <c r="D115" t="s">
-        <v>365</v>
+        <v>166</v>
       </c>
       <c r="E115" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F115">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G115"/>
       <c r="I115"/>
       <c r="J115"/>
       <c r="K115" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L115"/>
       <c r="M115" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N115"/>
       <c r="O115"/>
@@ -7003,16 +7063,16 @@
     </row>
     <row r="116" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C116" t="s">
-        <v>366</v>
+        <v>161</v>
       </c>
       <c r="D116" t="s">
-        <v>367</v>
+        <v>162</v>
       </c>
       <c r="E116" t="s">
         <v>84</v>
@@ -7028,7 +7088,7 @@
       </c>
       <c r="L116"/>
       <c r="M116" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
@@ -7038,34 +7098,32 @@
     </row>
     <row r="117" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C117" t="s">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="D117" t="s">
-        <v>369</v>
+        <v>164</v>
       </c>
       <c r="E117" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G117"/>
       <c r="I117"/>
-      <c r="J117" t="s">
-        <v>264</v>
-      </c>
+      <c r="J117"/>
       <c r="K117" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="L117"/>
       <c r="M117" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N117"/>
       <c r="O117"/>
@@ -7075,34 +7133,32 @@
     </row>
     <row r="118" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="D118" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E118" t="s">
         <v>84</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G118"/>
       <c r="I118"/>
-      <c r="J118" t="s">
-        <v>264</v>
-      </c>
+      <c r="J118"/>
       <c r="K118" t="s">
         <v>85</v>
       </c>
       <c r="L118"/>
       <c r="M118" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N118"/>
       <c r="O118"/>
@@ -7110,29 +7166,114 @@
       <c r="Q118"/>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="F119"/>
-      <c r="K119" s="13"/>
-      <c r="M119"/>
+    <row r="119" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13">
+        <v>67</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" t="s">
+        <v>366</v>
+      </c>
+      <c r="D119" t="s">
+        <v>367</v>
+      </c>
+      <c r="E119" t="s">
+        <v>84</v>
+      </c>
+      <c r="F119">
+        <v>200</v>
+      </c>
+      <c r="G119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119" t="s">
+        <v>85</v>
+      </c>
+      <c r="L119"/>
+      <c r="M119" t="s">
+        <v>431</v>
+      </c>
       <c r="N119"/>
       <c r="O119"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="F120"/>
-      <c r="K120" s="13"/>
-      <c r="M120"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+    </row>
+    <row r="120" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13">
+        <v>68</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" t="s">
+        <v>368</v>
+      </c>
+      <c r="D120" t="s">
+        <v>369</v>
+      </c>
+      <c r="E120" t="s">
+        <v>84</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120"/>
+      <c r="I120"/>
+      <c r="J120" t="s">
+        <v>264</v>
+      </c>
+      <c r="K120" t="s">
+        <v>85</v>
+      </c>
+      <c r="L120"/>
+      <c r="M120" t="s">
+        <v>432</v>
+      </c>
       <c r="N120"/>
       <c r="O120"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="F121"/>
-      <c r="K121" s="13"/>
-      <c r="M121"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+    </row>
+    <row r="121" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
+        <v>69</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" t="s">
+        <v>370</v>
+      </c>
+      <c r="E121" t="s">
+        <v>84</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121"/>
+      <c r="I121"/>
+      <c r="J121" t="s">
+        <v>264</v>
+      </c>
+      <c r="K121" t="s">
+        <v>85</v>
+      </c>
+      <c r="L121"/>
+      <c r="M121" t="s">
+        <v>433</v>
+      </c>
       <c r="N121"/>
       <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
@@ -7214,9 +7355,34 @@
       <c r="N131"/>
       <c r="O131"/>
     </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="F132"/>
+      <c r="K132" s="13"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="F133"/>
+      <c r="K133" s="13"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="F134"/>
+      <c r="K134" s="13"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7350,10 +7516,10 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7399,7 +7565,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>228</v>
@@ -7421,7 +7587,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>228</v>
@@ -7443,7 +7609,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>228</v>
@@ -7534,7 +7700,7 @@
         <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
@@ -7558,7 +7724,7 @@
         <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -7582,7 +7748,7 @@
         <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C10" t="s">
         <v>86</v>
@@ -7603,7 +7769,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -7627,7 +7793,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -7651,7 +7817,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -7675,7 +7841,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -7699,7 +7865,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -7721,7 +7887,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B16" t="s">
         <v>208</v>
@@ -7743,7 +7909,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B17" t="s">
         <v>208</v>
@@ -7765,7 +7931,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B18" t="s">
         <v>208</v>
@@ -7787,7 +7953,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -7809,7 +7975,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B20" t="s">
         <v>208</v>
@@ -7831,7 +7997,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B21" t="s">
         <v>231</v>
@@ -7853,7 +8019,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B22" t="s">
         <v>231</v>
@@ -7875,7 +8041,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B23" t="s">
         <v>231</v>
@@ -7897,7 +8063,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B24" t="s">
         <v>233</v>
@@ -7921,7 +8087,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B25" t="s">
         <v>233</v>
@@ -7945,7 +8111,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B26" t="s">
         <v>233</v>
@@ -7982,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>473</v>
+        <v>588</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -8004,7 +8170,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>474</v>
+        <v>589</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -8050,7 +8216,7 @@
       </c>
       <c r="G30"/>
       <c r="H30" s="23" t="s">
-        <v>473</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -8072,7 +8238,7 @@
       </c>
       <c r="G31"/>
       <c r="H31" s="23" t="s">
-        <v>474</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -8099,7 +8265,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
@@ -8125,7 +8291,7 @@
     </row>
     <row r="34" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -8151,7 +8317,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -8177,7 +8343,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
@@ -8192,13 +8358,13 @@
         <v>214</v>
       </c>
       <c r="F36" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="G36" t="s">
         <v>475</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>476</v>
-      </c>
-      <c r="H36" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8206,7 +8372,7 @@
         <v>265</v>
       </c>
       <c r="B37" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
@@ -8226,7 +8392,7 @@
         <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
@@ -8246,7 +8412,7 @@
         <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
@@ -8266,17 +8432,17 @@
         <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -8286,7 +8452,7 @@
         <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
@@ -8308,7 +8474,7 @@
         <v>266</v>
       </c>
       <c r="B42" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
@@ -8330,14 +8496,14 @@
         <v>266</v>
       </c>
       <c r="B43" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
         <v>226</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F43" s="23">
         <v>3</v>
@@ -8352,29 +8518,29 @@
         <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
         <v>226</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G44"/>
       <c r="H44" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" t="s">
         <v>480</v>
-      </c>
-      <c r="B45" t="s">
-        <v>481</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
@@ -8397,10 +8563,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B46" t="s">
         <v>480</v>
-      </c>
-      <c r="B46" t="s">
-        <v>481</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
@@ -8415,18 +8581,18 @@
         <v>473</v>
       </c>
       <c r="G46" t="s">
+        <v>481</v>
+      </c>
+      <c r="H46" t="s">
         <v>482</v>
-      </c>
-      <c r="H46" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B47" t="s">
         <v>480</v>
-      </c>
-      <c r="B47" t="s">
-        <v>481</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -8449,10 +8615,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>479</v>
+      </c>
+      <c r="B48" t="s">
         <v>480</v>
-      </c>
-      <c r="B48" t="s">
-        <v>481</v>
       </c>
       <c r="C48" t="s">
         <v>89</v>
@@ -8478,7 +8644,7 @@
         <v>267</v>
       </c>
       <c r="B49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C49" t="s">
         <v>89</v>
@@ -8502,7 +8668,7 @@
         <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
@@ -8526,7 +8692,7 @@
         <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
@@ -8550,7 +8716,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C52" t="s">
         <v>89</v>
@@ -9549,11 +9715,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9596,30 +9762,30 @@
     </row>
     <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>489</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>492</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9627,13 +9793,13 @@
         <v>409</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>493</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9641,13 +9807,13 @@
         <v>409</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9655,13 +9821,13 @@
         <v>409</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9669,13 +9835,13 @@
         <v>409</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -9683,13 +9849,13 @@
         <v>409</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -9697,13 +9863,13 @@
         <v>409</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9711,13 +9877,13 @@
         <v>409</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9725,13 +9891,13 @@
         <v>409</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9739,13 +9905,13 @@
         <v>409</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9753,13 +9919,13 @@
         <v>410</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>502</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -9767,13 +9933,13 @@
         <v>411</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -9781,13 +9947,13 @@
         <v>412</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>506</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -9795,13 +9961,13 @@
         <v>413</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>508</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -9809,13 +9975,13 @@
         <v>414</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -9823,13 +9989,13 @@
         <v>415</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -9837,13 +10003,13 @@
         <v>416</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9851,13 +10017,13 @@
         <v>417</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>514</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9865,13 +10031,13 @@
         <v>418</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9879,13 +10045,13 @@
         <v>419</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="270" x14ac:dyDescent="0.25">
@@ -9893,13 +10059,13 @@
         <v>420</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -9907,13 +10073,13 @@
         <v>421</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>519</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9921,13 +10087,13 @@
         <v>422</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9935,13 +10101,13 @@
         <v>423</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9949,13 +10115,13 @@
         <v>424</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>523</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -9963,13 +10129,13 @@
         <v>425</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>525</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9977,13 +10143,13 @@
         <v>426</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>527</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9991,13 +10157,13 @@
         <v>427</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10005,13 +10171,13 @@
         <v>428</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>531</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10019,13 +10185,13 @@
         <v>429</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>533</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10033,13 +10199,13 @@
         <v>430</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>535</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10047,13 +10213,13 @@
         <v>431</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>537</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -10061,13 +10227,13 @@
         <v>432</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -10075,13 +10241,13 @@
         <v>433</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10089,13 +10255,13 @@
         <v>378</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>541</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -10103,13 +10269,13 @@
         <v>300</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -10120,10 +10286,10 @@
         <v>292</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>549</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -10134,10 +10300,10 @@
         <v>291</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10148,10 +10314,10 @@
         <v>297</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10162,10 +10328,10 @@
         <v>298</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10176,10 +10342,10 @@
         <v>293</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10190,10 +10356,10 @@
         <v>295</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10204,10 +10370,10 @@
         <v>294</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10218,10 +10384,10 @@
         <v>285</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -10232,10 +10398,10 @@
         <v>136</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -10246,10 +10412,10 @@
         <v>137</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -10260,10 +10426,10 @@
         <v>277</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -10274,175 +10440,227 @@
         <v>281</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D51" s="12" t="s">
+      <c r="C53" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D52" s="12" t="s">
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="C61" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>591</v>
+      </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>592</v>
+      </c>
       <c r="I64"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I65"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="D76"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I67"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78"/>
+      <c r="D78"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
